--- a/data/perth_suburb_properties.xlsx
+++ b/data/perth_suburb_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haleh\DA\Projects\Project-3\Project3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC7BD6C-49B9-4606-B7AE-6C03554B248D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCBE4F4-0A39-4FD6-8C83-0711820335A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36015" yWindow="-1695" windowWidth="14625" windowHeight="15765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="H302" sqref="H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6274,6 +6274,9 @@
       <c r="H108">
         <v>301</v>
       </c>
+      <c r="I108">
+        <v>135</v>
+      </c>
       <c r="J108">
         <v>1920</v>
       </c>
@@ -6339,10 +6342,10 @@
         <v>2</v>
       </c>
       <c r="H110">
-        <v>945</v>
+        <v>89</v>
       </c>
       <c r="I110">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J110">
         <v>1925</v>
@@ -6417,6 +6420,9 @@
       <c r="H112">
         <v>369</v>
       </c>
+      <c r="I112">
+        <v>309</v>
+      </c>
       <c r="J112">
         <v>1902</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>2</v>
       </c>
       <c r="H116" s="3">
-        <v>4726</v>
+        <v>158</v>
       </c>
       <c r="I116">
         <v>99</v>
@@ -6631,7 +6637,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>2362</v>
+        <v>144</v>
+      </c>
+      <c r="I118">
+        <v>88</v>
       </c>
       <c r="J118">
         <v>2020</v>
@@ -6660,7 +6669,10 @@
         <v>1</v>
       </c>
       <c r="H119" s="3">
-        <v>2800</v>
+        <v>49</v>
+      </c>
+      <c r="I119">
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1970</v>
@@ -6695,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1298</v>
+        <v>93</v>
       </c>
       <c r="I120">
         <v>61</v>
@@ -6727,13 +6739,13 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>2961</v>
+        <v>108</v>
       </c>
       <c r="I121">
         <v>73</v>
       </c>
       <c r="J121">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K121" t="s">
         <v>88</v>
@@ -6765,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>868</v>
+        <v>79</v>
       </c>
       <c r="I122">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J122">
         <v>2001</v>
@@ -6802,6 +6814,9 @@
       <c r="G123">
         <v>1</v>
       </c>
+      <c r="H123">
+        <v>84</v>
+      </c>
       <c r="I123">
         <v>78</v>
       </c>
@@ -7056,6 +7071,9 @@
       <c r="H130">
         <v>357</v>
       </c>
+      <c r="I130">
+        <v>102</v>
+      </c>
       <c r="J130">
         <v>1920</v>
       </c>
@@ -7159,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="3">
-        <v>4726</v>
+        <v>111</v>
       </c>
       <c r="I133">
         <v>78</v>
@@ -7229,10 +7247,10 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>1404</v>
+        <v>158</v>
       </c>
       <c r="I135">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="J135">
         <v>2006</v>
@@ -7305,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="3">
-        <v>2168</v>
+        <v>38</v>
       </c>
       <c r="I137">
         <v>38</v>
@@ -7343,7 +7361,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>2494</v>
+        <v>101</v>
+      </c>
+      <c r="I138">
+        <v>76</v>
       </c>
       <c r="J138">
         <v>1994</v>
@@ -7413,7 +7434,10 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1298</v>
+        <v>90</v>
+      </c>
+      <c r="I140">
+        <v>61</v>
       </c>
       <c r="J140">
         <v>2016</v>
@@ -7447,6 +7471,9 @@
       <c r="G141">
         <v>1</v>
       </c>
+      <c r="H141">
+        <v>45</v>
+      </c>
       <c r="I141">
         <v>45</v>
       </c>
@@ -7597,10 +7624,10 @@
         <v>1</v>
       </c>
       <c r="H145" s="3">
-        <v>1594</v>
+        <v>81</v>
       </c>
       <c r="I145">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J145">
         <v>2003</v>
@@ -7635,10 +7662,10 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>1283</v>
+        <v>114</v>
       </c>
       <c r="I146">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="J146">
         <v>2016</v>
@@ -7752,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="H149" s="3">
-        <v>10672</v>
+        <v>78</v>
       </c>
       <c r="I149">
         <v>52</v>
@@ -7790,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1283</v>
+        <v>100</v>
       </c>
       <c r="I150">
         <v>72</v>
@@ -7828,7 +7855,10 @@
         <v>2</v>
       </c>
       <c r="H151">
-        <v>2362</v>
+        <v>147</v>
+      </c>
+      <c r="I151">
+        <v>88</v>
       </c>
       <c r="J151">
         <v>2020</v>
@@ -7863,7 +7893,10 @@
         <v>2</v>
       </c>
       <c r="H152">
-        <v>2362</v>
+        <v>147</v>
+      </c>
+      <c r="I152">
+        <v>88</v>
       </c>
       <c r="J152">
         <v>2020</v>
@@ -7898,10 +7931,10 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>2362</v>
+        <v>82</v>
       </c>
       <c r="I153">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="J153">
         <v>2020</v>
@@ -8009,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="H156" s="3">
-        <v>1363</v>
+        <v>62</v>
       </c>
       <c r="I156">
         <v>62</v>
@@ -8047,7 +8080,10 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>560</v>
+        <v>172</v>
+      </c>
+      <c r="I157">
+        <v>103</v>
       </c>
       <c r="J157">
         <v>1989</v>
@@ -8082,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="3">
-        <v>3343</v>
+        <v>120</v>
       </c>
       <c r="I158">
         <v>90</v>
@@ -8120,7 +8156,10 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>2362</v>
+        <v>73</v>
+      </c>
+      <c r="I159">
+        <v>44</v>
       </c>
       <c r="J159">
         <v>2020</v>
@@ -8146,7 +8185,10 @@
         <v>1</v>
       </c>
       <c r="H160" s="3">
-        <v>4726</v>
+        <v>83</v>
+      </c>
+      <c r="I160">
+        <v>50</v>
       </c>
       <c r="J160">
         <v>2009</v>
@@ -8180,8 +8222,11 @@
       <c r="G161">
         <v>0</v>
       </c>
+      <c r="H161">
+        <v>60</v>
+      </c>
       <c r="I161">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>2001</v>
@@ -8216,7 +8261,10 @@
         <v>1</v>
       </c>
       <c r="H162" s="3">
-        <v>2269</v>
+        <v>46</v>
+      </c>
+      <c r="I162">
+        <v>46</v>
       </c>
       <c r="J162">
         <v>2011</v>
@@ -8251,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>10671</v>
+        <v>98</v>
       </c>
       <c r="I163">
         <v>72</v>
@@ -8359,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="3">
-        <v>3665</v>
+        <v>55</v>
       </c>
       <c r="I166">
         <v>55</v>
@@ -8397,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>640</v>
+        <v>61</v>
       </c>
       <c r="I167">
         <v>54</v>
@@ -8437,6 +8485,9 @@
       <c r="H168">
         <v>278</v>
       </c>
+      <c r="I168">
+        <v>113</v>
+      </c>
       <c r="J168">
         <v>1920</v>
       </c>
@@ -8470,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1849</v>
+        <v>92</v>
       </c>
       <c r="I169">
         <v>69</v>
@@ -8504,6 +8555,9 @@
       <c r="H170">
         <v>273</v>
       </c>
+      <c r="I170">
+        <v>90</v>
+      </c>
       <c r="J170">
         <v>1920</v>
       </c>
@@ -8531,7 +8585,10 @@
         <v>4</v>
       </c>
       <c r="H171">
-        <v>3100</v>
+        <v>265</v>
+      </c>
+      <c r="I171">
+        <v>265</v>
       </c>
       <c r="J171">
         <v>1982</v>
@@ -8592,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="3">
-        <v>4373</v>
+        <v>167</v>
       </c>
       <c r="I173">
         <v>77</v>
@@ -8770,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="3">
-        <v>3196</v>
+        <v>96</v>
       </c>
       <c r="I178">
         <v>90</v>
@@ -8884,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>4143</v>
+        <v>110</v>
       </c>
       <c r="I181">
         <v>78</v>
@@ -8992,10 +9049,10 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>868</v>
+        <v>117</v>
       </c>
       <c r="I184">
-        <v>613</v>
+        <v>66</v>
       </c>
       <c r="J184">
         <v>2001</v>
@@ -9091,7 +9148,10 @@
         <v>1</v>
       </c>
       <c r="H187" s="3">
-        <v>2455</v>
+        <v>67</v>
+      </c>
+      <c r="I187">
+        <v>67</v>
       </c>
       <c r="J187">
         <v>1956</v>
@@ -9126,7 +9186,7 @@
         <v>2</v>
       </c>
       <c r="H188" s="3">
-        <v>10672</v>
+        <v>119</v>
       </c>
       <c r="I188">
         <v>83</v>
@@ -9202,10 +9262,10 @@
         <v>1</v>
       </c>
       <c r="H190" s="3">
-        <v>1850</v>
+        <v>144</v>
       </c>
       <c r="I190">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J190">
         <v>2006</v>
@@ -9313,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="H193" s="3">
-        <v>3250</v>
+        <v>82</v>
       </c>
       <c r="I193">
         <v>59</v>
@@ -9494,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="H198" s="3">
-        <v>1850</v>
+        <v>124</v>
       </c>
       <c r="I198">
         <v>72</v>
@@ -9532,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="H199" s="3">
-        <v>1540</v>
+        <v>180</v>
       </c>
       <c r="I199">
         <v>150</v>
@@ -9570,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="H200" s="3">
-        <v>2269</v>
+        <v>61</v>
       </c>
       <c r="I200">
         <v>53</v>
@@ -9608,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="H201" s="3">
-        <v>1215</v>
+        <v>111</v>
       </c>
       <c r="I201">
         <v>78</v>
@@ -9640,7 +9700,10 @@
         <v>1</v>
       </c>
       <c r="H202" s="3">
-        <v>1220</v>
+        <v>63</v>
+      </c>
+      <c r="I202">
+        <v>60</v>
       </c>
       <c r="J202">
         <v>1967</v>
@@ -9675,7 +9738,10 @@
         <v>0</v>
       </c>
       <c r="H203" s="3">
-        <v>2362</v>
+        <v>50</v>
+      </c>
+      <c r="I203">
+        <v>35</v>
       </c>
       <c r="J203">
         <v>2020</v>
@@ -9710,10 +9776,10 @@
         <v>2</v>
       </c>
       <c r="H204">
-        <v>4701</v>
+        <v>196</v>
       </c>
       <c r="I204">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="J204">
         <v>2011</v>
@@ -9853,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="H208" s="3">
-        <v>10672</v>
+        <v>122</v>
       </c>
       <c r="I208">
         <v>80</v>
@@ -10078,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="H214" s="3">
-        <v>1363</v>
+        <v>62</v>
       </c>
       <c r="I214">
         <v>62</v>
@@ -10154,13 +10220,13 @@
         <v>2</v>
       </c>
       <c r="H216">
-        <v>1331</v>
+        <v>123</v>
       </c>
       <c r="I216">
         <v>84</v>
       </c>
       <c r="J216">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -10440,10 +10506,10 @@
         <v>1</v>
       </c>
       <c r="H224" s="3">
-        <v>5557</v>
+        <v>57</v>
       </c>
       <c r="I224">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J224">
         <v>2005</v>
@@ -10472,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="H225" s="3">
-        <v>3356</v>
+        <v>83</v>
       </c>
       <c r="I225">
         <v>52</v>
@@ -10510,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="H226" s="3">
-        <v>3128</v>
+        <v>99</v>
       </c>
       <c r="I226">
         <v>69</v>
@@ -10548,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="H227" s="3">
-        <v>3186</v>
+        <v>68</v>
       </c>
       <c r="I227">
         <v>50</v>
@@ -10624,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="H229" s="3">
-        <v>1540</v>
+        <v>100</v>
       </c>
       <c r="I229">
         <v>100</v>
@@ -10814,7 +10880,7 @@
         <v>2</v>
       </c>
       <c r="H234" s="3">
-        <v>2029</v>
+        <v>212</v>
       </c>
       <c r="I234">
         <v>138</v>
@@ -10846,10 +10912,10 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>2127</v>
+        <v>159</v>
       </c>
       <c r="I235">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J235">
         <v>2009</v>
@@ -10883,6 +10949,12 @@
       <c r="G236">
         <v>0</v>
       </c>
+      <c r="H236">
+        <v>71</v>
+      </c>
+      <c r="I236">
+        <v>44</v>
+      </c>
       <c r="J236">
         <v>2020</v>
       </c>
@@ -10986,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>4415</v>
+        <v>194</v>
       </c>
       <c r="J239">
         <v>2002</v>
@@ -11018,7 +11090,10 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>1849</v>
+        <v>93</v>
+      </c>
+      <c r="I240">
+        <v>69</v>
       </c>
       <c r="J240">
         <v>2005</v>
@@ -11049,6 +11124,9 @@
       <c r="H241">
         <v>233</v>
       </c>
+      <c r="I241">
+        <v>101</v>
+      </c>
       <c r="J241">
         <v>1920</v>
       </c>
@@ -11113,6 +11191,12 @@
       <c r="G243">
         <v>1</v>
       </c>
+      <c r="H243">
+        <v>72</v>
+      </c>
+      <c r="I243">
+        <v>43</v>
+      </c>
       <c r="J243">
         <v>2020</v>
       </c>
@@ -11145,6 +11229,12 @@
       <c r="G244">
         <v>0</v>
       </c>
+      <c r="H244">
+        <v>71</v>
+      </c>
+      <c r="I244">
+        <v>44</v>
+      </c>
       <c r="J244">
         <v>2020</v>
       </c>
@@ -11171,6 +11261,12 @@
       <c r="G245">
         <v>0</v>
       </c>
+      <c r="H245">
+        <v>71</v>
+      </c>
+      <c r="I245">
+        <v>44</v>
+      </c>
       <c r="J245">
         <v>2020</v>
       </c>
@@ -11197,6 +11293,12 @@
       <c r="G246">
         <v>1</v>
       </c>
+      <c r="H246">
+        <v>87</v>
+      </c>
+      <c r="I246">
+        <v>59</v>
+      </c>
       <c r="J246">
         <v>2020</v>
       </c>
@@ -11229,6 +11331,12 @@
       <c r="G247">
         <v>1</v>
       </c>
+      <c r="H247">
+        <v>116</v>
+      </c>
+      <c r="I247">
+        <v>97</v>
+      </c>
       <c r="J247">
         <v>2005</v>
       </c>
@@ -11256,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>1417</v>
+        <v>35</v>
       </c>
       <c r="I248">
         <v>33</v>
@@ -11294,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="H249" s="3">
-        <v>5547</v>
+        <v>159</v>
       </c>
       <c r="I249">
         <v>107</v>
@@ -11326,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>1298</v>
+        <v>124</v>
       </c>
       <c r="I250">
         <v>85</v>
@@ -11402,7 +11510,10 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>507</v>
+        <v>506</v>
+      </c>
+      <c r="I252">
+        <v>125</v>
       </c>
       <c r="J252">
         <v>1900</v>
@@ -11463,10 +11574,10 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>945</v>
+        <v>93</v>
       </c>
       <c r="I254">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J254">
         <v>1925</v>
@@ -11606,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="H258" s="3">
-        <v>5547</v>
+        <v>71</v>
       </c>
       <c r="I258">
         <v>51</v>
@@ -11670,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="H260" s="3">
-        <v>3356</v>
+        <v>98</v>
       </c>
       <c r="I260">
         <v>61</v>
@@ -11704,6 +11815,9 @@
       <c r="H261">
         <v>403</v>
       </c>
+      <c r="I261">
+        <v>129</v>
+      </c>
       <c r="J261">
         <v>1930</v>
       </c>
@@ -11848,7 +11962,10 @@
         <v>2</v>
       </c>
       <c r="H265">
-        <v>311</v>
+        <v>261</v>
+      </c>
+      <c r="I265">
+        <v>135</v>
       </c>
       <c r="J265">
         <v>2015</v>
@@ -11909,7 +12026,10 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>867</v>
+        <v>59</v>
+      </c>
+      <c r="I267">
+        <v>53</v>
       </c>
       <c r="J267">
         <v>2001</v>
@@ -11944,7 +12064,10 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>640</v>
+        <v>28</v>
+      </c>
+      <c r="I268">
+        <v>27</v>
       </c>
       <c r="J268">
         <v>1900</v>
@@ -11973,7 +12096,7 @@
         <v>2</v>
       </c>
       <c r="H269" s="3">
-        <v>4726</v>
+        <v>135</v>
       </c>
       <c r="I269">
         <v>90</v>
@@ -12139,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="H274" s="3">
-        <v>4864</v>
+        <v>111</v>
       </c>
       <c r="I274">
         <v>76</v>
@@ -12177,10 +12300,10 @@
         <v>1</v>
       </c>
       <c r="H275" s="3">
-        <v>1603</v>
+        <v>90</v>
       </c>
       <c r="I275">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J275">
         <v>2011</v>
@@ -12249,6 +12372,9 @@
       <c r="H277">
         <v>617</v>
       </c>
+      <c r="I277">
+        <v>137</v>
+      </c>
       <c r="J277">
         <v>1920</v>
       </c>
@@ -12282,10 +12408,10 @@
         <v>1</v>
       </c>
       <c r="H278" s="3">
-        <v>3028</v>
+        <v>78</v>
       </c>
       <c r="I278">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J278">
         <v>2014</v>
@@ -12358,7 +12484,7 @@
         <v>2</v>
       </c>
       <c r="H280" s="3">
-        <v>4143</v>
+        <v>266</v>
       </c>
       <c r="I280">
         <v>186</v>
@@ -12434,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="H282" s="3">
-        <v>3658</v>
+        <v>176</v>
       </c>
       <c r="I282">
         <v>185</v>
@@ -12539,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="H285" s="3">
-        <v>3356</v>
+        <v>156</v>
       </c>
       <c r="I285">
         <v>101</v>
@@ -12679,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>867</v>
+        <v>60</v>
       </c>
       <c r="I289">
         <v>54</v>
@@ -12787,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>2072</v>
+        <v>74</v>
       </c>
       <c r="I292">
         <v>55</v>
@@ -12857,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>4143</v>
+        <v>106</v>
       </c>
       <c r="I294">
         <v>78</v>
@@ -12920,6 +13046,9 @@
       <c r="G296">
         <v>1</v>
       </c>
+      <c r="H296">
+        <v>36</v>
+      </c>
       <c r="I296">
         <v>34</v>
       </c>
@@ -12956,7 +13085,10 @@
         <v>1</v>
       </c>
       <c r="H297" s="3">
-        <v>1627</v>
+        <v>43</v>
+      </c>
+      <c r="I297">
+        <v>43</v>
       </c>
       <c r="J297">
         <v>1960</v>
@@ -12991,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="3">
-        <v>3665</v>
+        <v>69</v>
       </c>
       <c r="I298">
         <v>69</v>
@@ -13029,7 +13161,10 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>373</v>
+        <v>87</v>
+      </c>
+      <c r="I299">
+        <v>91</v>
       </c>
       <c r="J299">
         <v>1900</v>
@@ -13102,7 +13237,7 @@
         <v>2</v>
       </c>
       <c r="H301" s="3">
-        <v>4726</v>
+        <v>189</v>
       </c>
       <c r="I301">
         <v>99</v>
